--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,116 +455,73 @@
       <c r="Q1" t="str">
         <v>error_2</v>
       </c>
-      <c r="R1" t="str">
-        <v>campaignName_3</v>
-      </c>
-      <c r="S1" t="str">
-        <v>campaignDate_3</v>
-      </c>
-      <c r="T1" t="str">
-        <v>client_status_3</v>
-      </c>
-      <c r="U1" t="str">
-        <v>campaign_status_3</v>
-      </c>
-      <c r="V1" t="str">
-        <v>messages_3</v>
-      </c>
-      <c r="W1" t="str">
-        <v>error_3</v>
-      </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>gustavo gomez villafane</v>
+        <v>MIRELA MENALDO</v>
       </c>
       <c r="B2" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">18/09/2024 10:48:05 - gustavo gomez villafane: hola
-18/09/2024 10:48:05 - MegaBot: ¡Hola gustavo gomez villafane 👋, gracias por contactarte con Megamoto! Soy MegaBot, asistente virtual impulsado por Inteligencia Artificial entrenado para ayudarte a comprar tu próxima moto. ¿Qué te gustaría saber?
-18/09/2024 10:48:27 - gustavo gomez villafane: que motos venden?
-MegaBot: ¡Hola! Vendemos motos de las marcas Benelli, Suzuki, Motomel, Keeway, Sym y TVS. ¿Estás interesado en algún modelo en particular?</v>
+        <v>WhatsApp</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>5491161405589</v>
+        <v>5491165631702</v>
       </c>
       <c r="E2" s="1">
-        <v>45553.449503738426</v>
+        <v>45556.77490350694</v>
       </c>
       <c r="F2" t="str">
-        <v>pedidosya</v>
+        <v>prueba4</v>
       </c>
       <c r="G2" s="1">
-        <v>45553.486184629626</v>
+        <v>45556.77489958333</v>
       </c>
       <c r="H2" t="str">
-        <v>respuesta</v>
+        <v>dni</v>
       </c>
       <c r="I2" t="str">
         <v>activa</v>
       </c>
       <c r="J2" t="str" xml:space="preserve">
-        <v xml:space="preserve">MegaBot: Hola GUSTAVO GOMEZ VILAFANE, te contactamos de Megamoto por el acuerdo entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una AX100. La moto podés sacarla con los beneficios en efectivo, tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o pasanos el DNI de un garante. Aguardo tus novedades.
-18/09/2024 11:42:29 - gustavo gomez villafane: paso DNI de un conocido
-MegaBot: ¡Hola! Perfecto, por favor, pásame el DNI del garante para que podamos avanzar con tu solicitud.
-18/09/2024 11:42:44 - gustavo gomez villafane: 20471170
-MegaBot: ¡Gracias! En breve, un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso. ¡Que tengas un excelente día!
-18/09/2024 11:42:56 - gustavo gomez villafane: pasarme con un vendedor
-MegaBot: En breve, un vendedor de Megamoto se pondrá en contacto contigo. ¡Gracias por tu paciencia!</v>
+        <v xml:space="preserve">MegaBot: Hola MIRELA MENALDO, te contactamos de Megamoto por el acuerdo con los beneficios entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una AX100. La moto podés sacarla en efectivo, con tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o con el DNI de un garante. Elegí una de las siguientes opciones.
+21/09/2024 18:39:30 - MIRELA MENALDO: pasarme con un vendedor.
+MegaBot: ¡Gracias! En breve un vendedor se va a estar contactando. ¡Que tengas un buen día!
+21/09/2024 18:58:12 - MIRELA MENALDO: paso DNI de un conocido.
+MegaBot: ¡Perfecto! Envianos un DNI de un familiar o conocido que pienses pueda calificar para un crédito así lo verificamos y nos volvemos a comunicar con vos.
+21/09/2024 19:05:02 - MIRELA MENALDO: paso DNI de un conocido.
+MegaBot: ¡Perfecto! Envianos un DNI de un familiar o conocido que pienses pueda calificar para un crédito así lo verificamos y nos volvemos a comunicar con vos.</v>
       </c>
       <c r="K2" t="str">
         <v/>
       </c>
       <c r="L2" t="str">
-        <v>pedidosya</v>
+        <v>prueba5</v>
       </c>
       <c r="M2" s="1">
-        <v>45554.47644197917</v>
+        <v>45556.79475278935</v>
       </c>
       <c r="N2" t="str">
-        <v>respuesta</v>
+        <v>dni</v>
       </c>
       <c r="O2" t="str">
         <v>activa</v>
       </c>
       <c r="P2" t="str" xml:space="preserve">
-        <v xml:space="preserve">MegaBot: Hola GUSTAVO GOMEZ VILLAFANE, te contactamos de Megamoto por el acuerdo entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una AX100. La moto podés sacarla con los beneficios en efectivo, tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o pasanos el DNI de un garante. Aguardo tus novedades.
-19/09/2024 12:36:18 - gustavo gomez villafane: paso DNI de un conocido
-MegaBot: ¡Hola! Perfecto, por favor, pásame el DNI del garante para que podamos avanzar con tu solicitud.
-19/09/2024 12:36:35 - gustavo gomez villafane: 22020202
-MegaBot: ¡Gracias! En breve, un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso. ¡Que tengas un excelente día!
-19/09/2024 12:37:04 - gustavo gomez villafane: pasarme con un vendedor
-MegaBot: Claro, en breve un vendedor de Megamoto se pondrá en contacto contigo. ¡Gracias por tu paciencia!</v>
+        <v xml:space="preserve">MegaBot: Hola MIRELA MENALDO, te contactamos de Megamoto por el acuerdo con los beneficios entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una AX100. La moto podés sacarla en efectivo, con tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o con el DNI de un garante. Elegí una de las siguientes opciones.
+21/09/2024 19:07:52 - MIRELA MENALDO: pasarme con un vendedor.
+MegaBot: ¡Gracias! En breve un vendedor se va a estar contactando. ¡Que tengas un buen día!
+22/09/2024 20:34:36 - MIRELA MENALDO: paso DNI de un conocido.
+MegaBot: ¡Perfecto! Envianos un DNI de un familiar o conocido que pienses pueda calificar para un crédito así lo verificamos y nos volvemos a comunicar con vos.</v>
       </c>
       <c r="Q2" t="str">
         <v/>
       </c>
-      <c r="R2" t="str">
-        <v>pedidosya</v>
-      </c>
-      <c r="S2" s="1">
-        <v>45554.53101747685</v>
-      </c>
-      <c r="T2" t="str">
-        <v>respuesta</v>
-      </c>
-      <c r="U2" t="str">
-        <v>activa</v>
-      </c>
-      <c r="V2" t="str" xml:space="preserve">
-        <v xml:space="preserve">MegaBot: Hola GUSTAVO GOMEZ VILLAFANE, te contactamos de Megamoto por el acuerdo con los beneficios entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una AX100. La moto podés sacarla en efectivo, con tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o con el DNI de un garante. Elegí una de las siguientes opciones.
-19/09/2024 12:47:08 - gustavo gomez villafane: 2020202
-MegaBot: ¡Hola! Gracias por tu mensaje. ¿Podrías proporcionarme el DNI de un garante para avanzar con tu solicitud?</v>
-      </c>
-      <c r="W2" t="str">
-        <v/>
-      </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>GUSTAVO GLUNZ</v>
+        <v>GUSTAVO</v>
       </c>
       <c r="B3" t="str">
         <v>WhatsApp</v>
@@ -573,33 +530,184 @@
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
       <c r="E3" s="1">
-        <v>45553.486136875</v>
+        <v>45561.73680278935</v>
       </c>
       <c r="F3" t="str">
-        <v>pedidosya</v>
+        <v>prueba1</v>
       </c>
       <c r="G3" s="1">
-        <v>45553.486132847225</v>
+        <v>45561.73680273148</v>
       </c>
       <c r="H3" t="str">
-        <v>contactado</v>
+        <v>no interesado</v>
       </c>
       <c r="I3" t="str">
         <v>activa</v>
       </c>
-      <c r="J3" t="str">
-        <v>MegaBot: Hola GUSTAVO GLUNZ, te contactamos de Megamoto por el acuerdo entre Pedido Ya y Grupo la Emilia (Motomel / Suzuki). Nos informaron que estabas interesado en una BLITZ 110. La moto podés sacarla con los beneficios en efectivo, tarjeta de crédito o préstamo personal. Si querés sacarla en cuotas puede ser con tarjeta de crédito o pasanos el DNI de un garante. Aguardo tus novedades.</v>
-      </c>
-      <c r="K3" t="str">
+      <c r="J3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error al contactar cliente por la Campaña prueba1.
+26/09/2024 18:18:11 - gustavo gomez villafane: Sí, pago de contado
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+26/09/2024 18:21:23 - gustavo gomez villafane: Sí, pago con préstamo
+MegaBot: ¡Perfecto! Verificamos con tu DNI que nos pasaron en el Acuerdo, y no te otorgan suficiente para la moto, por lo cual necesitamos el DNI de algún conocido tuyo que salga de garante. Si estás de acuerdo, por favor pasámelo para verificar y te avisamos.
+26/09/2024 18:22:39 - gustavo gomez villafane: 75565656
+MegaBot: ¡Gracias por enviarnos tu DNI! Un vendedor se va a encargar de verificar si calificas para un préstamo y te estará contactando. ¡Que tengas un buen día!
+26/09/2024 18:24:41 - gustavo gomez villafane: Sí, pago con tarjeta
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+26/09/2024 19:03:11 - gustavo gomez villafane: Sí, pero tengo consultas
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+26/09/2024 19:13:07 - gustavo gomez villafane: No gracias
+MegaBot: Ok gracias por tu tiempo, cualquier consulta podés volver a este chat cuando quieras. ¡Saludos!</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>LUCIA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>WhatsApp</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>5491169779582</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45562.43194047454</v>
+      </c>
+      <c r="F4" t="str">
+        <v>prueba1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45562.43193590278</v>
+      </c>
+      <c r="H4" t="str">
+        <v>no interesado</v>
+      </c>
+      <c r="I4" t="str">
+        <v>activa</v>
+      </c>
+      <c r="J4" t="str" xml:space="preserve">
+        <v xml:space="preserve">MegaBot: Hola LUCIA, te contactamos de Megamoto por el acuerdo entre PEDIDO YA y Motomel / Suzuki. Nos informaron tu interés por una AX100. ¿Queres aprovecharlo?
+27/09/2024 10:24:51 - Lucía: Sí, pago de contado
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+27/09/2024 10:25:02 - Lucía: Sí, pago con préstamo
+MegaBot: ¡Perfecto! Verificamos con tu DNI que nos pasaron en el Acuerdo, y no te otorgan suficiente para la moto, por lo cual necesitamos el DNI de algún conocido tuyo que salga de garante. Si estás de acuerdo, por favor pasámelo para verificar y te avisamos.
+27/09/2024 10:25:22 - Lucía: 26784647
+MegaBot: ¡Gracias por enviarnos tu DNI! Un vendedor se va a encargar de verificar si calificas para un préstamo y te estará contactando. ¡Que tengas un buen día!
+27/09/2024 10:25:41 - Lucía: Sí, pago con tarjeta
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+27/09/2024 10:25:56 - Lucía: Sí, pero tengo consultas
+MegaBot: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+27/09/2024 10:26:06 - Lucía: No gracias
+MegaBot: Ok gracias por tu tiempo, cualquier consulta podés volver a este chat cuando quieras. ¡Saludos!</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>NNNN</v>
+      </c>
+      <c r="B5" t="str">
+        <v>WhatsApp</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>5491159911742</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45566.502727928244</v>
+      </c>
+      <c r="F5" t="str">
+        <v>nnnn</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45566.502723819445</v>
+      </c>
+      <c r="H5" t="str">
+        <v>no interesado</v>
+      </c>
+      <c r="I5" t="str">
+        <v>activa</v>
+      </c>
+      <c r="J5" t="str" xml:space="preserve">
+        <v xml:space="preserve">MegaBot: Hola NNNN, te contactamos de Megamoto por el acuerdo entre PEDIDO YA y Motomel / Suzuki. Nos informaron tu interés por una AX100. ¿Queres aprovecharlo?
+01/10/2024 12:10:50 - Gustavo Glunz: Sí, pago de contado
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 12:21:20 - Gustavo Glunz: Sí, pago con préstamo
+MEGABOT: ¡Perfecto! Verificamos con tu DNI que nos pasaron en el Acuerdo, y no te otorgan suficiente para la moto, por lo cual necesitamos el DNI de algún conocido tuyo que salga de garante. Si estás de acuerdo, por favor pasámelo para verificar y te avisamos.
+01/10/2024 12:29:24 - Gustavo Glunz: 21480915
+MEGABOT: ¡Gracias por enviarnos tu DNI! Un vendedor se va a encargar de verificar si calificas para un préstamo y te estará contactando. ¡Que tengas un buen día!
+01/10/2024 12:56:26 - Gustavo Glunz: Sí, pago con tarjeta
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 13:01:51 - Gustavo Glunz: Sí, pero tengo consultas
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 13:16:41 - Gustavo Glunz: No gracias
+MEGABOT: Ok gracias por tu tiempo, cualquier consulta podés volver a este chat cuando quieras. ¡Saludos!</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>JOSELIN SIERRA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>WhatsApp</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>5491159790625</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45566.56015445602</v>
+      </c>
+      <c r="F6" t="str">
+        <v>prueba</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45566.56015042824</v>
+      </c>
+      <c r="H6" t="str">
+        <v>vendedor no notificado</v>
+      </c>
+      <c r="I6" t="str">
+        <v>activa</v>
+      </c>
+      <c r="J6" t="str" xml:space="preserve">
+        <v xml:space="preserve">MegaBot: Hola JOSELIN SIERRA, te contactamos de Megamoto por el acuerdo entre PEDIDO YA y Motomel / Suzuki. Nos informaron tu interés por una AX100. ¿Queres aprovecharlo?
+01/10/2024 13:28:32 - MEGAMOTO: Hola!! Gracias por comunicarte con MEGAMOTO, mi nombre  es Joselin representante de Ventas.  Nuestros horarios de atención son: lunes a viernes 10 a 19hs. Sabados de 10 a 18hs. Podes dejar  tu consulta y te estaré asesorando a la brevedad
+MEGABOT: ¡Hola! Soy MegaBot de Megamoto. Gracias por tu interés en nuestras motos. Entiendo que estás interesado en aprovechar los beneficios especiales para trabajadores de reparto de PedidosYa. 
+Dado que tu crédito no calificó, ¿podrías proporcionarnos el DNI de un garante? Así podremos avanzar con la evaluación.
+01/10/2024 13:31:22 - MEGAMOTO: Sí, pago con tarjeta
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 13:31:51 - MEGAMOTO: Sí, pago de contado
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 13:33:13 - MEGAMOTO: Sí, pero tengo consultas
+MEGABOT: ¡Perfecto! Un vendedor se contactará contigo a la brevedad. ¡Hasta pronto!
+01/10/2024 13:33:46 - MEGAMOTO: Sí, pago con préstamo
+MEGABOT: ¡Perfecto! Verificamos con el DNI que nos pasaron en el Acuerdo, y no te otorgan crédito suficiente para el total de la moto, por lo cual vamos a necesitar el DNI de algún conocido tuyo que no tenga deudas y que salga de garante. Si estás de acuerdo, por favor pasámelo por este medio para verificar y ya te avisamos.
+01/10/2024 13:34:05 - MEGAMOTO: 21480915
+MEGABOT: ¡Gracias por enviarnos el DNI del garante! Un vendedor se va a encargar de verificarlo y te informa a la brevedad. ¡Que tengas un buen día!</v>
+      </c>
+      <c r="K6" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q6"/>
   </ignoredErrors>
 </worksheet>
 </file>